--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/Data Sheet_A92_Fomesafen PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/Data Sheet_A92_Fomesafen PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Fomesafen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{F858E3E2-80F1-4220-A715-D6579808C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37F9073-3FC3-4C68-9F81-A30ABCBD6050}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{F858E3E2-80F1-4220-A715-D6579808C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32B93F9-2AA0-4B19-A90B-8EE2F0725D77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$I$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$M$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
   <si>
     <t>percentbio</t>
   </si>
+  <si>
+    <t>countred</t>
+  </si>
+  <si>
+    <t>biored</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,17 +516,20 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -545,14 +557,20 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -580,8 +598,20 @@
       <c r="I2" s="2">
         <v>2.3610000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -609,8 +639,20 @@
       <c r="I3" s="2">
         <v>1.8540000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -638,8 +680,20 @@
       <c r="I4" s="2">
         <v>1.3340000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -667,8 +721,20 @@
       <c r="I5" s="2">
         <v>2.3860000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -696,8 +762,22 @@
       <c r="I6" s="2">
         <v>2.1949999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <f>H6/AVERAGE($H$2:$H$5)</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <f>1-(H6/AVERAGE($H$2:$H$5))</f>
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46</v>
       </c>
@@ -725,8 +805,24 @@
       <c r="I7" s="2">
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J45" si="0">H7/AVERAGE($H$2:$H$5)</f>
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K7:K45" si="1">I7/AVERAGE($I$2:$I$5)</f>
+        <v>0.42142407057340897</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:L45" si="2">1-(H7/AVERAGE($H$2:$H$5))</f>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M45" si="3">1-(I7/AVERAGE($I$2:$I$5))</f>
+        <v>0.57857592942659108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>47</v>
       </c>
@@ -754,8 +850,22 @@
       <c r="I8" s="2">
         <v>1.6559999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83478260869565213</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16521739130434787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>48</v>
       </c>
@@ -783,8 +893,22 @@
       <c r="I9" s="2">
         <v>1.9059999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96080655324511655</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9193446754883454E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>49</v>
       </c>
@@ -812,8 +936,24 @@
       <c r="I10" s="2">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61333333333333329</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37655954631379962</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.38666666666666671</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.62344045368620038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>50</v>
       </c>
@@ -841,8 +981,24 @@
       <c r="I11" s="2">
         <v>1.0369999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.52274732199117835</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.47725267800882165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>51</v>
       </c>
@@ -870,8 +1026,24 @@
       <c r="I12" s="2">
         <v>1.522</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76723377441713936</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23276622558286064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>52</v>
       </c>
@@ -899,8 +1071,24 @@
       <c r="I13" s="2">
         <v>1.1830000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.59634530560806553</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40365469439193447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>53</v>
       </c>
@@ -928,8 +1116,24 @@
       <c r="I14" s="2">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17744171392564587</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82255828607435411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>54</v>
       </c>
@@ -957,8 +1161,24 @@
       <c r="I15" s="2">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17895400126023944</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82104599873976059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>55</v>
       </c>
@@ -986,8 +1206,24 @@
       <c r="I16" s="2">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40932577189666042</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.59067422810333958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>56</v>
       </c>
@@ -1015,8 +1251,24 @@
       <c r="I17" s="2">
         <v>1.7290000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61333333333333329</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87158160050409583</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.38666666666666671</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12841839949590417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>57</v>
       </c>
@@ -1044,8 +1296,24 @@
       <c r="I18" s="2">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38764965343415253</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.61235034656584753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>58</v>
       </c>
@@ -1073,8 +1341,24 @@
       <c r="I19" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0409577819785758E-4</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.99949590422180212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>59</v>
       </c>
@@ -1102,8 +1386,24 @@
       <c r="I20" s="2">
         <v>1.901</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95828607435412738</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1713925645872618E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>60</v>
       </c>
@@ -1131,8 +1431,24 @@
       <c r="I21" s="2">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.42028985507246375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>61</v>
       </c>
@@ -1160,8 +1476,24 @@
       <c r="I22" s="2">
         <v>0.47199999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23793320730938877</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76206679269061128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>62</v>
       </c>
@@ -1189,8 +1521,24 @@
       <c r="I23" s="2">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2812854442344046</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.7187145557655954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>63</v>
       </c>
@@ -1218,8 +1566,24 @@
       <c r="I24" s="2">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37504725897920604</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57333333333333325</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.62495274102079401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>64</v>
       </c>
@@ -1247,8 +1611,24 @@
       <c r="I25" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5532451165721498E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.93446754883427852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>65</v>
       </c>
@@ -1276,8 +1656,24 @@
       <c r="I26" s="2">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10938878386893511</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89061121613106486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>66</v>
       </c>
@@ -1305,8 +1701,24 @@
       <c r="I27" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3106490233144297E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.98689350976685575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>67</v>
       </c>
@@ -1334,8 +1746,24 @@
       <c r="I28" s="2">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1581600504095774E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92841839949590421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>68</v>
       </c>
@@ -1363,8 +1791,24 @@
       <c r="I29" s="2">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.69061121613106502</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.30938878386893498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>69</v>
       </c>
@@ -1392,8 +1836,24 @@
       <c r="I30" s="2">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10132325141776939</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89867674858223057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>70</v>
       </c>
@@ -1421,8 +1881,24 @@
       <c r="I31" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9155639571518588E-2</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.98084436042848144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>71</v>
       </c>
@@ -1450,8 +1926,24 @@
       <c r="I32" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0409577819785758E-4</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.99949590422180212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>72</v>
       </c>
@@ -1479,8 +1971,24 @@
       <c r="I33" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5614366729678639E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92438563327032131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>73</v>
       </c>
@@ -1508,8 +2016,24 @@
       <c r="I34" s="2">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6200378071833658E-2</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="2"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91379962192816633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>74</v>
       </c>
@@ -1537,8 +2061,24 @@
       <c r="I35" s="2">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1077504725897911E-2</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92892249527410209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>75</v>
       </c>
@@ -1566,8 +2106,24 @@
       <c r="I36" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0667926906112164E-2</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="3"/>
+        <v>0.97933207309388781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>76</v>
       </c>
@@ -1595,8 +2151,24 @@
       <c r="I37" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6131064902331443E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9838689350976686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>77</v>
       </c>
@@ -1624,8 +2196,24 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>78</v>
       </c>
@@ -1653,8 +2241,24 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>79</v>
       </c>
@@ -1682,8 +2286,24 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>80</v>
       </c>
@@ -1711,8 +2331,24 @@
       <c r="I41" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5122873345935728E-2</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97333333333333338</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="3"/>
+        <v>0.98487712665406424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>81</v>
       </c>
@@ -1740,8 +2376,24 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>82</v>
       </c>
@@ -1769,8 +2421,24 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>83</v>
       </c>
@@ -1798,8 +2466,24 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>84</v>
       </c>
@@ -1827,8 +2511,24 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>125</v>
       </c>
@@ -1856,8 +2556,20 @@
       <c r="I46" s="2">
         <v>0.93700000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>126</v>
       </c>
@@ -1885,8 +2597,20 @@
       <c r="I47" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>127</v>
       </c>
@@ -1914,8 +2638,20 @@
       <c r="I48" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>169</v>
       </c>
@@ -1943,8 +2679,22 @@
       <c r="I49" s="2">
         <v>0.47199999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f>H49/AVERAGE($H$46:$H$48)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <f>1-(H49/AVERAGE($H$46:$H$48))</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>170</v>
       </c>
@@ -1972,8 +2722,24 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <f t="shared" ref="J50:J76" si="4">H50/AVERAGE($H$46:$H$48)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" ref="K50:K76" si="5">I50/AVERAGE($I$46:$I$48)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" ref="L50:L76" si="6">1-(H50/AVERAGE($H$46:$H$48))</f>
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" ref="M50:M76" si="7">1-(I50/AVERAGE($I$46:$I$48))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>171</v>
       </c>
@@ -2001,8 +2767,24 @@
       <c r="I51" s="2">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="5"/>
+        <v>0.68773584905660379</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="7"/>
+        <v>0.31226415094339621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>172</v>
       </c>
@@ -2030,8 +2812,20 @@
       <c r="I52" s="2">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>173</v>
       </c>
@@ -2059,8 +2853,24 @@
       <c r="I53" s="2">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="5"/>
+        <v>0.5575471698113208</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="7"/>
+        <v>0.4424528301886792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>174</v>
       </c>
@@ -2088,8 +2898,24 @@
       <c r="I54" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="5"/>
+        <v>0.26320754716981132</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="7"/>
+        <v>0.73679245283018868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>175</v>
       </c>
@@ -2117,8 +2943,24 @@
       <c r="I55" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="5"/>
+        <v>0.16698113207547169</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="7"/>
+        <v>0.83301886792452828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>176</v>
       </c>
@@ -2146,8 +2988,24 @@
       <c r="I56" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="5"/>
+        <v>3.113207547169811E-2</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="7"/>
+        <v>0.96886792452830184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>177</v>
       </c>
@@ -2175,8 +3033,22 @@
       <c r="I57" s="2">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>178</v>
       </c>
@@ -2204,8 +3076,22 @@
       <c r="I58" s="2">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86886792452830186</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="7"/>
+        <v>0.13113207547169814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>179</v>
       </c>
@@ -2233,8 +3119,24 @@
       <c r="I59" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2452830188679243E-2</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="7"/>
+        <v>0.95754716981132071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>180</v>
       </c>
@@ -2262,8 +3164,22 @@
       <c r="I60" s="2">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>181</v>
       </c>
@@ -2291,8 +3207,20 @@
       <c r="I61" s="2">
         <v>1.8320000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>182</v>
       </c>
@@ -2320,8 +3248,22 @@
       <c r="I62" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>183</v>
       </c>
@@ -2349,8 +3291,20 @@
       <c r="I63" s="2">
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>184</v>
       </c>
@@ -2378,8 +3332,24 @@
       <c r="I64" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="5"/>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="7"/>
+        <v>0.83018867924528306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>185</v>
       </c>
@@ -2407,8 +3377,24 @@
       <c r="I65" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="5"/>
+        <v>1.981132075471698E-2</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="7"/>
+        <v>0.98018867924528297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>186</v>
       </c>
@@ -2436,8 +3422,24 @@
       <c r="I66" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2452830188679243E-2</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="7"/>
+        <v>0.95754716981132071</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>187</v>
       </c>
@@ -2465,8 +3467,24 @@
       <c r="I67" s="2">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="5"/>
+        <v>0.39339622641509436</v>
+      </c>
+      <c r="L67" s="4">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="7"/>
+        <v>0.60660377358490569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>188</v>
       </c>
@@ -2494,8 +3512,24 @@
       <c r="I68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>189</v>
       </c>
@@ -2523,8 +3557,24 @@
       <c r="I69" s="2">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="5"/>
+        <v>3.962264150943396E-2</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="7"/>
+        <v>0.96037735849056605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>190</v>
       </c>
@@ -2552,8 +3602,24 @@
       <c r="I70" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="5"/>
+        <v>8.4905660377358489E-3</v>
+      </c>
+      <c r="L70" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="7"/>
+        <v>0.9915094339622641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>191</v>
       </c>
@@ -2581,8 +3647,24 @@
       <c r="I71" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8301886792452833E-3</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99716981132075466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>192</v>
       </c>
@@ -2610,8 +3692,24 @@
       <c r="I72" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8301886792452833E-3</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99716981132075466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>193</v>
       </c>
@@ -2639,8 +3737,22 @@
       <c r="I73" s="2">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="5"/>
+        <v>0.55471698113207546</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="7"/>
+        <v>0.44528301886792454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>194</v>
       </c>
@@ -2668,8 +3780,24 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>195</v>
       </c>
@@ -2697,8 +3825,24 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>196</v>
       </c>
@@ -2726,8 +3870,24 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -2755,8 +3915,20 @@
       <c r="I77" s="2">
         <v>2.0619999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -2784,8 +3956,20 @@
       <c r="I78" s="2">
         <v>1.6160000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -2813,8 +3997,20 @@
       <c r="I79" s="2">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -2842,8 +4038,20 @@
       <c r="I80" s="2">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45</v>
       </c>
@@ -2871,8 +4079,24 @@
       <c r="I81" s="2">
         <v>0.59699999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <f>H81/AVERAGE($H$77:$H$80)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="K81" s="4">
+        <f>I81/AVERAGE($I$77:$I$80)</f>
+        <v>0.34468822170900693</v>
+      </c>
+      <c r="L81" s="4">
+        <f>1-(H81/AVERAGE($H$77:$H$80))</f>
+        <v>0.48275862068965514</v>
+      </c>
+      <c r="M81" s="4">
+        <f>1-(I81/AVERAGE($I$77:$I$80))</f>
+        <v>0.65531177829099307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>46</v>
       </c>
@@ -2900,8 +4124,24 @@
       <c r="I82" s="2">
         <v>1.0029999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <f t="shared" ref="J82:J120" si="8">H82/AVERAGE($H$77:$H$80)</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" ref="K82:K120" si="9">I82/AVERAGE($I$77:$I$80)</f>
+        <v>0.57909930715935332</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" ref="L82:L120" si="10">1-(H82/AVERAGE($H$77:$H$80))</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="M82" s="4">
+        <f t="shared" ref="M82:M120" si="11">1-(I82/AVERAGE($I$77:$I$80))</f>
+        <v>0.42090069284064668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>47</v>
       </c>
@@ -2929,8 +4169,24 @@
       <c r="I83" s="2">
         <v>0.78100000000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <f t="shared" si="8"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="9"/>
+        <v>0.45092378752886836</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="10"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="11"/>
+        <v>0.5490762124711317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>48</v>
       </c>
@@ -2958,8 +4214,24 @@
       <c r="I84" s="2">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <f t="shared" si="8"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="9"/>
+        <v>0.64953810623556585</v>
+      </c>
+      <c r="L84" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="M84" s="4">
+        <f t="shared" si="11"/>
+        <v>0.35046189376443415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>49</v>
       </c>
@@ -2987,8 +4259,24 @@
       <c r="I85" s="2">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <f t="shared" si="8"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="9"/>
+        <v>0.34872979214780597</v>
+      </c>
+      <c r="L85" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="11"/>
+        <v>0.65127020785219403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>50</v>
       </c>
@@ -3016,8 +4304,24 @@
       <c r="I86" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="9"/>
+        <v>3.7528868360277134E-2</v>
+      </c>
+      <c r="L86" s="4">
+        <f t="shared" si="10"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="11"/>
+        <v>0.96247113163972287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>51</v>
       </c>
@@ -3045,8 +4349,22 @@
       <c r="I87" s="2">
         <v>1.776</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <f t="shared" si="8"/>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4">
+        <f t="shared" si="10"/>
+        <v>0.24137931034482762</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>52</v>
       </c>
@@ -3074,8 +4392,20 @@
       <c r="I88" s="2">
         <v>2.0390000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>53</v>
       </c>
@@ -3103,8 +4433,24 @@
       <c r="I89" s="2">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <f t="shared" si="8"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="9"/>
+        <v>0.17205542725173209</v>
+      </c>
+      <c r="L89" s="4">
+        <f t="shared" si="10"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" si="11"/>
+        <v>0.82794457274826794</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>54</v>
       </c>
@@ -3132,8 +4478,24 @@
       <c r="I90" s="2">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <f t="shared" si="8"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="9"/>
+        <v>0.20496535796766743</v>
+      </c>
+      <c r="L90" s="4">
+        <f t="shared" si="10"/>
+        <v>0.48275862068965514</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79503464203233254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>55</v>
       </c>
@@ -3161,8 +4523,24 @@
       <c r="I91" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <f t="shared" si="8"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="9"/>
+        <v>0.2540415704387991</v>
+      </c>
+      <c r="L91" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5862068965517242</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="11"/>
+        <v>0.74595842956120095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>56</v>
       </c>
@@ -3190,8 +4568,24 @@
       <c r="I92" s="2">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25692840646651272</v>
+      </c>
+      <c r="L92" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="4">
+        <f t="shared" si="11"/>
+        <v>0.74307159353348728</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>57</v>
       </c>
@@ -3219,8 +4613,24 @@
       <c r="I93" s="2">
         <v>0.71699999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <f t="shared" si="8"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="9"/>
+        <v>0.41397228637413391</v>
+      </c>
+      <c r="L93" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5862068965517242</v>
+      </c>
+      <c r="M93" s="4">
+        <f t="shared" si="11"/>
+        <v>0.58602771362586603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>58</v>
       </c>
@@ -3248,8 +4658,20 @@
       <c r="I94" s="2">
         <v>1.9119999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>59</v>
       </c>
@@ -3277,8 +4699,24 @@
       <c r="I95" s="2">
         <v>1.1759999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <f t="shared" si="8"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="9"/>
+        <v>0.67898383371824478</v>
+      </c>
+      <c r="L95" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" si="11"/>
+        <v>0.32101616628175522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>60</v>
       </c>
@@ -3306,8 +4744,22 @@
       <c r="I96" s="2">
         <v>1.8560000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>61</v>
       </c>
@@ -3335,8 +4787,24 @@
       <c r="I97" s="2">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <f t="shared" si="8"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="9"/>
+        <v>0.39780600461893761</v>
+      </c>
+      <c r="L97" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="M97" s="4">
+        <f t="shared" si="11"/>
+        <v>0.60219399538106244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>62</v>
       </c>
@@ -3364,8 +4832,24 @@
       <c r="I98" s="2">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <f t="shared" si="8"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="9"/>
+        <v>0.24711316397228636</v>
+      </c>
+      <c r="L98" s="4">
+        <f t="shared" si="10"/>
+        <v>0.51724137931034475</v>
+      </c>
+      <c r="M98" s="4">
+        <f t="shared" si="11"/>
+        <v>0.75288683602771367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>63</v>
       </c>
@@ -3393,8 +4877,24 @@
       <c r="I99" s="2">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <f t="shared" si="8"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19630484988452657</v>
+      </c>
+      <c r="L99" s="4">
+        <f t="shared" si="10"/>
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="M99" s="4">
+        <f t="shared" si="11"/>
+        <v>0.80369515011547343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>64</v>
       </c>
@@ -3422,8 +4922,24 @@
       <c r="I100" s="2">
         <v>1.008</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <f t="shared" si="8"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="9"/>
+        <v>0.58198614318706698</v>
+      </c>
+      <c r="L100" s="4">
+        <f t="shared" si="10"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" si="11"/>
+        <v>0.41801385681293302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>65</v>
       </c>
@@ -3451,8 +4967,24 @@
       <c r="I101" s="2">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <f t="shared" si="8"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" si="9"/>
+        <v>0.52771362586605086</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="10"/>
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="11"/>
+        <v>0.47228637413394914</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>66</v>
       </c>
@@ -3480,8 +5012,24 @@
       <c r="I102" s="2">
         <v>0.61399999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <f t="shared" si="8"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="K102" s="4">
+        <f t="shared" si="9"/>
+        <v>0.35450346420323325</v>
+      </c>
+      <c r="L102" s="4">
+        <f t="shared" si="10"/>
+        <v>0.51724137931034475</v>
+      </c>
+      <c r="M102" s="4">
+        <f t="shared" si="11"/>
+        <v>0.6454965357967668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>67</v>
       </c>
@@ -3509,8 +5057,24 @@
       <c r="I103" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <f t="shared" si="8"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="K103" s="4">
+        <f t="shared" si="9"/>
+        <v>0.14434180138568128</v>
+      </c>
+      <c r="L103" s="4">
+        <f t="shared" si="10"/>
+        <v>0.51724137931034475</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" si="11"/>
+        <v>0.85565819861431869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>68</v>
       </c>
@@ -3538,8 +5102,24 @@
       <c r="I104" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <f t="shared" si="8"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="K104" s="4">
+        <f t="shared" si="9"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+      <c r="L104" s="4">
+        <f t="shared" si="10"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="11"/>
+        <v>0.95381062355658197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>69</v>
       </c>
@@ -3567,8 +5147,24 @@
       <c r="I105" s="2">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="9"/>
+        <v>2.7136258660508082E-2</v>
+      </c>
+      <c r="L105" s="4">
+        <f t="shared" si="10"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="11"/>
+        <v>0.97286374133949194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>70</v>
       </c>
@@ -3596,8 +5192,24 @@
       <c r="I106" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K106" s="4">
+        <f t="shared" si="9"/>
+        <v>2.6558891454965358E-2</v>
+      </c>
+      <c r="L106" s="4">
+        <f t="shared" si="10"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="11"/>
+        <v>0.97344110854503463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>71</v>
       </c>
@@ -3625,8 +5237,24 @@
       <c r="I107" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <f t="shared" si="8"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="K107" s="4">
+        <f t="shared" si="9"/>
+        <v>8.6605080831408769E-3</v>
+      </c>
+      <c r="L107" s="4">
+        <f t="shared" si="10"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="M107" s="4">
+        <f t="shared" si="11"/>
+        <v>0.99133949191685911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>72</v>
       </c>
@@ -3654,8 +5282,24 @@
       <c r="I108" s="2">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <f t="shared" si="8"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="K108" s="4">
+        <f t="shared" si="9"/>
+        <v>7.1016166281755194E-2</v>
+      </c>
+      <c r="L108" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="M108" s="4">
+        <f t="shared" si="11"/>
+        <v>0.92898383371824478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>73</v>
       </c>
@@ -3683,8 +5327,24 @@
       <c r="I109" s="2">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <f t="shared" si="8"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="K109" s="4">
+        <f t="shared" si="9"/>
+        <v>0.12066974595842955</v>
+      </c>
+      <c r="L109" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="M109" s="4">
+        <f t="shared" si="11"/>
+        <v>0.87933025404157039</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>74</v>
       </c>
@@ -3712,8 +5372,24 @@
       <c r="I110" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <f t="shared" si="8"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="K110" s="4">
+        <f t="shared" si="9"/>
+        <v>2.0785219399538105E-2</v>
+      </c>
+      <c r="L110" s="4">
+        <f t="shared" si="10"/>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="M110" s="4">
+        <f t="shared" si="11"/>
+        <v>0.97921478060046185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>75</v>
       </c>
@@ -3741,8 +5417,24 @@
       <c r="I111" s="2">
         <v>0.16900000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <f t="shared" si="8"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="K111" s="4">
+        <f t="shared" si="9"/>
+        <v>9.7575057736720566E-2</v>
+      </c>
+      <c r="L111" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5862068965517242</v>
+      </c>
+      <c r="M111" s="4">
+        <f t="shared" si="11"/>
+        <v>0.90242494226327941</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>76</v>
       </c>
@@ -3770,8 +5462,24 @@
       <c r="I112" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <f t="shared" si="8"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6166281755196306E-2</v>
+      </c>
+      <c r="L112" s="4">
+        <f t="shared" si="10"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="M112" s="4">
+        <f t="shared" si="11"/>
+        <v>0.9838337182448037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>77</v>
       </c>
@@ -3799,8 +5507,24 @@
       <c r="I113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M113" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>78</v>
       </c>
@@ -3828,8 +5552,24 @@
       <c r="I114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M114" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>79</v>
       </c>
@@ -3857,8 +5597,24 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M115" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>80</v>
       </c>
@@ -3886,8 +5642,24 @@
       <c r="I116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M116" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>81</v>
       </c>
@@ -3915,8 +5687,24 @@
       <c r="I117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M117" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>82</v>
       </c>
@@ -3944,8 +5732,24 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>83</v>
       </c>
@@ -3973,8 +5777,24 @@
       <c r="I119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>84</v>
       </c>
@@ -4002,8 +5822,24 @@
       <c r="I120" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <f t="shared" si="8"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" si="9"/>
+        <v>7.5057736720554272E-3</v>
+      </c>
+      <c r="L120" s="4">
+        <f t="shared" si="10"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="M120" s="4">
+        <f t="shared" si="11"/>
+        <v>0.9924942263279446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>125</v>
       </c>
@@ -4031,8 +5867,20 @@
       <c r="I121" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" s="4">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126</v>
       </c>
@@ -4060,8 +5908,20 @@
       <c r="I122" s="2">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>127</v>
       </c>
@@ -4089,8 +5949,20 @@
       <c r="I123" s="2">
         <v>1.6859999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>169</v>
       </c>
@@ -4118,8 +5990,20 @@
       <c r="I124" s="2">
         <v>1.657</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>170</v>
       </c>
@@ -4147,8 +6031,20 @@
       <c r="I125" s="2">
         <v>1.9850000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>171</v>
       </c>
@@ -4176,8 +6072,24 @@
       <c r="I126" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <f t="shared" ref="J125:J146" si="12">H126/AVERAGE($H$121:$H$123)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" ref="K125:K146" si="13">I126/AVERAGE($I$121:$I$123)</f>
+        <v>1.700344997535732E-2</v>
+      </c>
+      <c r="L126" s="4">
+        <f t="shared" ref="L125:L146" si="14">1-(H126/AVERAGE($H$121:$H$123))</f>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="M126" s="4">
+        <f t="shared" ref="M125:M146" si="15">1-(I126/AVERAGE($I$121:$I$123))</f>
+        <v>0.9829965500246427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>172</v>
       </c>
@@ -4205,8 +6117,24 @@
       <c r="I127" s="2">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <f t="shared" si="12"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="13"/>
+        <v>0.51379990142927545</v>
+      </c>
+      <c r="L127" s="4">
+        <f t="shared" si="14"/>
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="M127" s="4">
+        <f t="shared" si="15"/>
+        <v>0.48620009857072455</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>173</v>
       </c>
@@ -4234,8 +6162,24 @@
       <c r="I128" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="K128" s="4">
+        <f t="shared" si="13"/>
+        <v>1.700344997535732E-2</v>
+      </c>
+      <c r="L128" s="4">
+        <f t="shared" si="14"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="M128" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9829965500246427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>174</v>
       </c>
@@ -4263,8 +6207,24 @@
       <c r="I129" s="2">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <f t="shared" si="12"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="K129" s="4">
+        <f t="shared" si="13"/>
+        <v>0.40882207984228686</v>
+      </c>
+      <c r="L129" s="4">
+        <f t="shared" si="14"/>
+        <v>0.26315789473684215</v>
+      </c>
+      <c r="M129" s="4">
+        <f t="shared" si="15"/>
+        <v>0.5911779201577132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>175</v>
       </c>
@@ -4292,8 +6252,24 @@
       <c r="I130" s="2">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <f t="shared" si="12"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="K130" s="4">
+        <f t="shared" si="13"/>
+        <v>0.10054213898472154</v>
+      </c>
+      <c r="L130" s="4">
+        <f t="shared" si="14"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="M130" s="4">
+        <f t="shared" si="15"/>
+        <v>0.89945786101527847</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>176</v>
       </c>
@@ -4321,8 +6297,24 @@
       <c r="I131" s="2">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <f t="shared" si="12"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="K131" s="4">
+        <f t="shared" si="13"/>
+        <v>0.16781665845243962</v>
+      </c>
+      <c r="L131" s="4">
+        <f t="shared" si="14"/>
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="M131" s="4">
+        <f t="shared" si="15"/>
+        <v>0.83218334154756035</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>177</v>
       </c>
@@ -4350,8 +6342,24 @@
       <c r="I132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M132" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>178</v>
       </c>
@@ -4379,8 +6387,24 @@
       <c r="I133" s="2">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4">
+        <f t="shared" si="12"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K133" s="4">
+        <f t="shared" si="13"/>
+        <v>0.29127649088220797</v>
+      </c>
+      <c r="L133" s="4">
+        <f t="shared" si="14"/>
+        <v>0.52631578947368429</v>
+      </c>
+      <c r="M133" s="4">
+        <f t="shared" si="15"/>
+        <v>0.70872350911779203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>179</v>
       </c>
@@ -4408,8 +6432,24 @@
       <c r="I134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M134" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>181</v>
       </c>
@@ -4437,8 +6477,24 @@
       <c r="I135" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4">
+        <f t="shared" si="12"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K135" s="4">
+        <f t="shared" si="13"/>
+        <v>5.4706752094627893E-2</v>
+      </c>
+      <c r="L135" s="4">
+        <f t="shared" si="14"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="M135" s="4">
+        <f t="shared" si="15"/>
+        <v>0.94529324790537206</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>182</v>
       </c>
@@ -4466,8 +6522,24 @@
       <c r="I136" s="2">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4">
+        <f t="shared" si="12"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="K136" s="4">
+        <f t="shared" si="13"/>
+        <v>0.36742237555446033</v>
+      </c>
+      <c r="L136" s="4">
+        <f t="shared" si="14"/>
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="M136" s="4">
+        <f t="shared" si="15"/>
+        <v>0.63257762444553967</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>183</v>
       </c>
@@ -4495,8 +6567,24 @@
       <c r="I137" s="2">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4">
+        <f t="shared" si="12"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="K137" s="4">
+        <f t="shared" si="13"/>
+        <v>7.5406604238541147E-2</v>
+      </c>
+      <c r="L137" s="4">
+        <f t="shared" si="14"/>
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="M137" s="4">
+        <f t="shared" si="15"/>
+        <v>0.92459339576145882</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>185</v>
       </c>
@@ -4524,8 +6612,24 @@
       <c r="I138" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4">
+        <f t="shared" si="12"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3307047806801378E-2</v>
+      </c>
+      <c r="L138" s="4">
+        <f t="shared" si="14"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="M138" s="4">
+        <f t="shared" si="15"/>
+        <v>0.98669295219319864</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>186</v>
       </c>
@@ -4553,8 +6657,24 @@
       <c r="I139" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4">
+        <f t="shared" si="12"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <f t="shared" si="13"/>
+        <v>3.3267619517003445E-2</v>
+      </c>
+      <c r="L139" s="4">
+        <f t="shared" si="14"/>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="M139" s="4">
+        <f t="shared" si="15"/>
+        <v>0.96673238048299659</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>187</v>
       </c>
@@ -4582,8 +6702,24 @@
       <c r="I140" s="2">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="K140" s="4">
+        <f t="shared" si="13"/>
+        <v>0.10128141941843273</v>
+      </c>
+      <c r="L140" s="4">
+        <f t="shared" si="14"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="M140" s="4">
+        <f t="shared" si="15"/>
+        <v>0.89871858058156728</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>189</v>
       </c>
@@ -4611,8 +6747,24 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M141" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>190</v>
       </c>
@@ -4640,8 +6792,24 @@
       <c r="I142" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4">
+        <f t="shared" si="12"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K142" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1089206505667816E-2</v>
+      </c>
+      <c r="L142" s="4">
+        <f t="shared" si="14"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="M142" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9889107934943322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>191</v>
       </c>
@@ -4669,8 +6837,24 @@
       <c r="I143" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4">
+        <f t="shared" si="12"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K143" s="4">
+        <f t="shared" si="13"/>
+        <v>2.2178413011335633E-3</v>
+      </c>
+      <c r="L143" s="4">
+        <f t="shared" si="14"/>
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="M143" s="4">
+        <f t="shared" si="15"/>
+        <v>0.99778215869886644</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>193</v>
       </c>
@@ -4698,8 +6882,24 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K144" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M144" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>194</v>
       </c>
@@ -4727,8 +6927,24 @@
       <c r="I145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L145" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M145" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>195</v>
       </c>
@@ -4756,9 +6972,25 @@
       <c r="I146" s="2">
         <v>0</v>
       </c>
+      <c r="J146" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M146" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
+  <autoFilter ref="A1:M146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
